--- a/public/BaseInvestimento.xlsx
+++ b/public/BaseInvestimento.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eletrobrasroraima-my.sharepoint.com/personal/thacito_carneiro_roraimaenergia_com_br/Documents/SUBESTAÇÕES OBRAS/COORDENAÇÃO/CRONOGRAMAS/CRONOGRAMAS_2025/2025F/maycon-dash-dev/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="8_{F879B00A-4DBA-41AC-B543-6BE8F5827FE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A2245D4D-5320-4C26-9BB3-C1B455D64A54}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="8_{F879B00A-4DBA-41AC-B543-6BE8F5827FE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{949FC374-3D45-4D75-9A9D-F2E3E2692F1F}"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="0" windowWidth="26760" windowHeight="20880" xr2:uid="{88979A36-D192-4CA3-818C-122EAE81BF93}"/>
+    <workbookView xWindow="34095" yWindow="3390" windowWidth="21600" windowHeight="11385" xr2:uid="{88979A36-D192-4CA3-818C-122EAE81BF93}"/>
   </bookViews>
   <sheets>
     <sheet name="2025" sheetId="4" r:id="rId1"/>
@@ -696,7 +696,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
